--- a/Documents Finaux/Manuel de tests.xlsx
+++ b/Documents Finaux/Manuel de tests.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Courant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Documents Finaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6910CE-12AC-401C-A95F-F53D28EE0AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117D978-789A-4C9C-B041-924415BEFFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="120" windowWidth="11895" windowHeight="20850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stratégie de test" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Paramètres" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Liste des tests'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Liste des tests'!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>Type de test</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Résultat attendu</t>
   </si>
   <si>
-    <t>Description du test</t>
-  </si>
-  <si>
     <t>Réussite/echec</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>N°</t>
   </si>
   <si>
-    <t>Cause possible</t>
-  </si>
-  <si>
     <t>Coller print screens ici</t>
   </si>
   <si>
@@ -157,24 +151,12 @@
     <t>Table de routage Routeur</t>
   </si>
   <si>
-    <t>Ping server depuis poste 11</t>
-  </si>
-  <si>
-    <t>Ping server depuis succursale 2</t>
-  </si>
-  <si>
     <t>Ping server depuis télétravailleur</t>
   </si>
   <si>
-    <t>Ping printer depuis succursale 2</t>
-  </si>
-  <si>
     <t>Ping printer depuis télétravailleur</t>
   </si>
   <si>
-    <t>Configuration Routeur IP 0/0 &amp; 1/0</t>
-  </si>
-  <si>
     <t>Configuration Switch IP &amp; no switchport 0/1, 0/2 &amp; 0/13</t>
   </si>
   <si>
@@ -187,54 +169,9 @@
     <t>Phase 2</t>
   </si>
   <si>
-    <t>Accès à l'interface Site principal depuis PC05 (adresse ip dans browser)</t>
-  </si>
-  <si>
     <t>Connexion VPN site à site</t>
   </si>
   <si>
-    <t>image manquante</t>
-  </si>
-  <si>
-    <t>Show startup-config</t>
-  </si>
-  <si>
-    <t>Show starup-config</t>
-  </si>
-  <si>
-    <t>on voit que le chemin est différent</t>
-  </si>
-  <si>
-    <t>Site à site P1</t>
-  </si>
-  <si>
-    <t>Ping PC succursale 2 depuis PC siège principal</t>
-  </si>
-  <si>
-    <t>Configuration PC11</t>
-  </si>
-  <si>
-    <t>IP Config</t>
-  </si>
-  <si>
-    <t>Configuration PC12</t>
-  </si>
-  <si>
-    <t>ipconfig</t>
-  </si>
-  <si>
-    <t>Tracert gateway depuis 11</t>
-  </si>
-  <si>
-    <t>Tracert gateway depuis 12</t>
-  </si>
-  <si>
-    <t>Configuration Server</t>
-  </si>
-  <si>
-    <t>Configuration Imprimante Fixe</t>
-  </si>
-  <si>
     <t>Connextion via clien vpn</t>
   </si>
   <si>
@@ -247,41 +184,140 @@
     <t>Configuration Routeur IP 0/0 &amp; 0/1</t>
   </si>
   <si>
-    <t>Configuration PC Siège principal</t>
-  </si>
-  <si>
-    <t>Configuration PC Succursale secondaire</t>
-  </si>
-  <si>
     <t>Tracert PC succursale 2 depuis PC siège principal</t>
   </si>
   <si>
-    <t>Tracert PC Siège principal depuis succursale secondaire</t>
-  </si>
-  <si>
     <t>Accès à l'interface Site principal depuis PC05</t>
   </si>
   <si>
-    <t>Tracert gateway depuis Siège principal</t>
-  </si>
-  <si>
-    <t>Ping server depuis Siège principal</t>
-  </si>
-  <si>
-    <t>Tracert gateway depuis Succursale secondaire</t>
-  </si>
-  <si>
-    <t>Ping server depuis succursale Succursale secondaire</t>
-  </si>
-  <si>
-    <t>Ping printer depuis succursale Succursale secondaire</t>
+    <t>IP 192.168.128.xx</t>
+  </si>
+  <si>
+    <t>Vérifier l'adressage du serveur</t>
+  </si>
+  <si>
+    <t>IP 192.168.128.yy</t>
+  </si>
+  <si>
+    <t>IP 192.168.128.126</t>
+  </si>
+  <si>
+    <t>Vérifier l'adressage de l'imprimante</t>
+  </si>
+  <si>
+    <t>IP 192.168.128.125</t>
+  </si>
+  <si>
+    <t>Vérifier que les bonnes adresses soient attribuées</t>
+  </si>
+  <si>
+    <t>10.0.0.1 &amp; 172.16.0.1</t>
+  </si>
+  <si>
+    <t>Vérifier que les bonnes adresses soient attribuées &amp; que les ports puissent router</t>
+  </si>
+  <si>
+    <t>Vérifier que la table de routage corresponde aux besoins</t>
+  </si>
+  <si>
+    <t>Vérifier que le trajet n'emprunte pas le VPN site à site mais passe par le routeur</t>
+  </si>
+  <si>
+    <t>Un itinéraire différent qui ne passe pas par le VPN</t>
+  </si>
+  <si>
+    <t>Vérifier qu'on arrive à joindre le serveur depuis le télétravailleur</t>
+  </si>
+  <si>
+    <t>Vérifier qu'on arrive à joindre l'imprimante depuis le télétravailleur</t>
+  </si>
+  <si>
+    <t>Vérifier que le télétravailleur arrive à établir une connexion VPN au siège principal</t>
+  </si>
+  <si>
+    <t>Prouver que l'on est connecté au réseau de l'école</t>
+  </si>
+  <si>
+    <t>Prouver que le VPN site à site fonctionne</t>
+  </si>
+  <si>
+    <t>Prouver que le VPN cliet à site fonctionne</t>
+  </si>
+  <si>
+    <t>Réseau général</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Connexion arrive à s'établir</t>
+  </si>
+  <si>
+    <t>Ping réussi</t>
+  </si>
+  <si>
+    <t>Un itinéraire déterminé</t>
+  </si>
+  <si>
+    <t>Voir table de routage dans rapport</t>
+  </si>
+  <si>
+    <t>10.0.0.1 / 172.16.0.1 / 192.168.128.1 &amp; no switchport</t>
+  </si>
+  <si>
+    <t>Vérifier le fonctionnement DHCP du FortiGate</t>
+  </si>
+  <si>
+    <t>Configuration PC siège principal</t>
+  </si>
+  <si>
+    <t>Tracert gateway depuis siège principal</t>
+  </si>
+  <si>
+    <t>Ping server depuis siège principal</t>
+  </si>
+  <si>
+    <t>Vérifier qu'on arrive à joindre le serveur depuis le siège principal</t>
+  </si>
+  <si>
+    <t>Adresse IP de l'école</t>
+  </si>
+  <si>
+    <t>Un itinéraire déterminé via le CPNV</t>
+  </si>
+  <si>
+    <t>Configuration PC succursale 2</t>
+  </si>
+  <si>
+    <t>Vérifier qu'on arrive à joindre un ordinateur de la succursale 2</t>
+  </si>
+  <si>
+    <t>Tracert PC siège principal depuis succursale 2</t>
+  </si>
+  <si>
+    <t>Tracert gateway depuis succursale 2</t>
+  </si>
+  <si>
+    <t>Ping server depuis succursale succursale 2</t>
+  </si>
+  <si>
+    <t>Vérifier qu'on arrive à joindre le serveur depuis la succursale 2</t>
+  </si>
+  <si>
+    <t>Ping printer depuis succursale succursale 2</t>
+  </si>
+  <si>
+    <t>Vérifier qu'on arrive à joindre l'imprimante depuis la succursale 2</t>
+  </si>
+  <si>
+    <t>Une connexion depuis un PC de la salle C236</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,27 +406,17 @@
     </font>
     <font>
       <sz val="7"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
     <font>
+      <i/>
       <sz val="7"/>
-      <color rgb="FFC00000"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
       <color theme="1"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -490,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -519,14 +545,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,22 +841,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -842,589 +866,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="15"/>
+    <col min="2" max="2" width="33.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="9" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A2" s="19">
-        <v>1</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="B4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A3" s="19">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
-        <v>3</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A5" s="19">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A7" s="19">
-        <v>6</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A8" s="19">
-        <v>7</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A12" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="23"/>
-    </row>
-    <row r="11" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A11" s="19">
+      <c r="B12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A12" s="19">
+      <c r="B13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A14" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B14" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
+      <c r="E14" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
+      <c r="B15" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A16" s="19">
         <v>13</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="23"/>
-    </row>
-    <row r="16" spans="1:9" ht="9" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
-        <v>15</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="9" x14ac:dyDescent="0.15">
+      <c r="C16" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="9" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A18" s="19">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A19" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A20" s="19">
+        <v>17</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A21" s="19">
+        <v>18</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
+        <v>19</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
+        <v>20</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
+        <v>21</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:8" ht="9" x14ac:dyDescent="0.15">
-      <c r="A18" s="19">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="9" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" ht="9" x14ac:dyDescent="0.15">
-      <c r="A20" s="19">
-        <v>19</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" ht="9" x14ac:dyDescent="0.15">
-      <c r="A21" s="19">
-        <v>20</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="9" x14ac:dyDescent="0.15">
-      <c r="A22" s="19">
-        <v>21</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H23" s="23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B34" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B35" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H36" s="23"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B37" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H40" s="23"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H41" s="23"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H42" s="23"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="23"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B44" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" s="23"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" s="23"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H46" s="23"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B47" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="23"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B48" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="23"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="23"/>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="H50" s="23"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B58" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B66" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B67" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B68" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B69" s="15" t="s">
-        <v>49</v>
+      <c r="C25" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -1434,7 +1298,7 @@
           <x14:formula1>
             <xm:f>Paramètres!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:I1 F4:F52</xm:sqref>
+          <xm:sqref>E23:E55 E5:E10 E12:E21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1454,7 +1318,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1485,32 +1349,32 @@
     <row r="1" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -1525,64 +1389,64 @@
     </row>
     <row r="8" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="12.75" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:3" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1607,51 +1471,51 @@
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Documents Finaux/Manuel de tests.xlsx
+++ b/Documents Finaux/Manuel de tests.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\TPI\Documents Finaux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TPI\Documents Finaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117D978-789A-4C9C-B041-924415BEFFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stratégie de test" sheetId="4" r:id="rId1"/>
@@ -283,9 +282,6 @@
     <t>Adresse IP de l'école</t>
   </si>
   <si>
-    <t>Un itinéraire déterminé via le CPNV</t>
-  </si>
-  <si>
     <t>Configuration PC succursale 2</t>
   </si>
   <si>
@@ -311,12 +307,15 @@
   </si>
   <si>
     <t>Une connexion depuis un PC de la salle C236</t>
+  </si>
+  <si>
+    <t>Un tunnel site à site utilisant le réseau du CPNV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,15 +539,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -865,11 +864,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="8.25" x14ac:dyDescent="0.15"/>
@@ -900,386 +899,386 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A3" s="19">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A9" s="20">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A5" s="19">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A6" s="19">
-        <v>4</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A7" s="19">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A8" s="19">
-        <v>6</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
-        <v>7</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A10" s="19">
-        <v>8</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A12" s="19">
-        <v>9</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="C14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A13" s="19">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="E14" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A14" s="19">
-        <v>11</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="E15" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A16" s="19">
-        <v>13</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="C17" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A17" s="19">
-        <v>14</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="19" t="s">
+      <c r="E17" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="C18" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A18" s="19">
-        <v>15</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="19" t="s">
+      <c r="E18" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A23" s="20">
+        <v>19</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A24" s="20">
+        <v>20</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="9" x14ac:dyDescent="0.15">
+      <c r="A25" s="20">
+        <v>21</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A19" s="19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A20" s="19">
-        <v>17</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A21" s="19">
-        <v>18</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A23" s="19">
-        <v>19</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A24" s="19">
-        <v>20</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="9" x14ac:dyDescent="0.15">
-      <c r="A25" s="19">
-        <v>21</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1294,7 +1293,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Paramètres!$C$2:$C$4</xm:f>
           </x14:formula1>
@@ -1307,7 +1306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1327,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1456,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
